--- a/data/employee info.xlsx
+++ b/data/employee info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{89003FC5-BD46-4765-AFD3-71F0D6A6A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D361555-7650-40CB-B388-28959CF70D09}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{89003FC5-BD46-4765-AFD3-71F0D6A6A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C83166B2-5CCC-4EB7-91EF-1444308A72CC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,17 +757,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="10.21875" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
@@ -780,14 +778,14 @@
       <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -800,14 +798,15 @@
       <c r="C2" s="4">
         <v>26416</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4">
+        <f ca="1">TODAY()-370</f>
+        <v>45074</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>101500</v>
-      </c>
-      <c r="F2" s="4">
-        <v>37193</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -820,14 +819,14 @@
       <c r="C3" s="4">
         <v>23886</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4">
+        <v>38894</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>54000</v>
-      </c>
-      <c r="F3" s="4">
-        <v>38894</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -840,14 +839,14 @@
       <c r="C4" s="4">
         <v>24074</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4">
+        <v>38124</v>
+      </c>
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>72000</v>
-      </c>
-      <c r="F4" s="4">
-        <v>38124</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -858,16 +857,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>22123</v>
-      </c>
-      <c r="D5" t="s">
+        <v>29428</v>
+      </c>
+      <c r="D5" s="4">
+        <v>39049</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>31000</v>
-      </c>
-      <c r="F5" s="4">
-        <v>39049</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -880,14 +879,14 @@
       <c r="C6" s="4">
         <v>23042</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4">
+        <v>38459</v>
+      </c>
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>50500</v>
-      </c>
-      <c r="F6" s="4">
-        <v>38459</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -900,14 +899,14 @@
       <c r="C7" s="4">
         <v>25904</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4">
+        <v>39256</v>
+      </c>
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>120000</v>
-      </c>
-      <c r="F7" s="4">
-        <v>39256</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -920,14 +919,14 @@
       <c r="C8" s="4">
         <v>22635</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4">
+        <v>37891</v>
+      </c>
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>75000</v>
-      </c>
-      <c r="F8" s="4">
-        <v>37891</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -940,14 +939,14 @@
       <c r="C9" s="4">
         <v>27508</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4">
+        <v>36813</v>
+      </c>
+      <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>100000</v>
-      </c>
-      <c r="F9" s="4">
-        <v>36813</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -958,16 +957,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="4">
-        <v>32274</v>
-      </c>
-      <c r="D10" t="s">
+        <v>35926</v>
+      </c>
+      <c r="D10" s="4">
+        <v>42072</v>
+      </c>
+      <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>18500</v>
-      </c>
-      <c r="F10" s="4">
-        <v>42072</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -980,14 +979,14 @@
       <c r="C11" s="4">
         <v>33138</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4">
+        <v>42489</v>
+      </c>
+      <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>19000</v>
-      </c>
-      <c r="F11" s="4">
-        <v>42489</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1000,14 +999,14 @@
       <c r="C12" s="4">
         <v>28723</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4">
+        <v>39343</v>
+      </c>
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>82500</v>
-      </c>
-      <c r="F12" s="4">
-        <v>39343</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1020,14 +1019,14 @@
       <c r="C13" s="4">
         <v>26432</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4">
+        <v>38054</v>
+      </c>
+      <c r="E13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>77500</v>
-      </c>
-      <c r="F13" s="4">
-        <v>38054</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1040,14 +1039,14 @@
       <c r="C14" s="4">
         <v>26293</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4">
+        <v>37661</v>
+      </c>
+      <c r="E14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>35000</v>
-      </c>
-      <c r="F14" s="4">
-        <v>37661</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1060,14 +1059,14 @@
       <c r="C15" s="4">
         <v>22559</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4">
+        <v>39861</v>
+      </c>
+      <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="2">
-        <v>24000</v>
-      </c>
-      <c r="F15" s="4">
-        <v>39861</v>
+      <c r="F15" s="2">
+        <v>22000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1080,14 +1079,14 @@
       <c r="C16" s="4">
         <v>24970</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4">
+        <v>38066</v>
+      </c>
+      <c r="E16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>73000</v>
-      </c>
-      <c r="F16" s="4">
-        <v>38066</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1100,14 +1099,14 @@
       <c r="C17" s="4">
         <v>36635</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4">
+        <v>45031</v>
+      </c>
+      <c r="E17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>23500</v>
-      </c>
-      <c r="F17" s="4">
-        <v>45031</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1120,14 +1119,14 @@
       <c r="C18" s="4">
         <v>34630</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4">
+        <v>43861</v>
+      </c>
+      <c r="E18" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>36500</v>
-      </c>
-      <c r="F18" s="4">
-        <v>43861</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1140,14 +1139,14 @@
       <c r="C19" s="4">
         <v>31446</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4">
+        <v>38425</v>
+      </c>
+      <c r="E19" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>74000</v>
-      </c>
-      <c r="F19" s="4">
-        <v>38425</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1160,14 +1159,14 @@
       <c r="C20" s="4">
         <v>30522</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4">
+        <v>38038</v>
+      </c>
+      <c r="E20" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="2">
-        <v>74000</v>
-      </c>
-      <c r="F20" s="4">
-        <v>38038</v>
+      <c r="F20" s="2">
+        <v>77000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1180,14 +1179,14 @@
       <c r="C21" s="4">
         <v>26168</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4">
+        <v>36349</v>
+      </c>
+      <c r="E21" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="2">
-        <v>80000</v>
-      </c>
-      <c r="F21" s="4">
-        <v>38176</v>
+      <c r="F21" s="2">
+        <v>90000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1200,14 +1199,14 @@
       <c r="C22" s="4">
         <v>38222</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4">
+        <v>45047</v>
+      </c>
+      <c r="E22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>18500</v>
-      </c>
-      <c r="F22" s="4">
-        <v>38176</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1220,14 +1219,14 @@
       <c r="C23" s="4">
         <v>37869</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4">
+        <v>45078</v>
+      </c>
+      <c r="E23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="2">
-        <v>18500</v>
-      </c>
-      <c r="F23" s="4">
-        <v>38176</v>
+      <c r="F23" s="2">
+        <v>19000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1240,14 +1239,14 @@
       <c r="C24" s="4">
         <v>37655</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4">
+        <v>45108</v>
+      </c>
+      <c r="E24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="2">
-        <v>18500</v>
-      </c>
-      <c r="F24" s="4">
-        <v>38176</v>
+      <c r="F24" s="2">
+        <v>19500</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1260,14 +1259,14 @@
       <c r="C25" s="4">
         <v>37389</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4">
+        <v>45139</v>
+      </c>
+      <c r="E25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="2">
-        <v>18500</v>
-      </c>
-      <c r="F25" s="4">
-        <v>38176</v>
+      <c r="F25" s="2">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>

--- a/data/employee info.xlsx
+++ b/data/employee info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{89003FC5-BD46-4765-AFD3-71F0D6A6A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C83166B2-5CCC-4EB7-91EF-1444308A72CC}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{89003FC5-BD46-4765-AFD3-71F0D6A6A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72CE59C8-E712-4E2B-B8B8-DCB1DBDD495F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" tabRatio="226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
@@ -757,7 +757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -799,8 +801,7 @@
         <v>26416</v>
       </c>
       <c r="D2" s="4">
-        <f ca="1">TODAY()-370</f>
-        <v>45074</v>
+        <v>35723</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -857,10 +858,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>29428</v>
+        <v>32350</v>
       </c>
       <c r="D5" s="4">
-        <v>39049</v>
+        <v>42702</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -1037,10 +1038,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="4">
-        <v>26293</v>
+        <v>33598</v>
       </c>
       <c r="D14" s="4">
-        <v>37661</v>
+        <v>41314</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>

--- a/data/employee info.xlsx
+++ b/data/employee info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{89003FC5-BD46-4765-AFD3-71F0D6A6A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72CE59C8-E712-4E2B-B8B8-DCB1DBDD495F}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{89003FC5-BD46-4765-AFD3-71F0D6A6A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0028312-4160-4BA4-817A-26272B6BD786}"/>
   <bookViews>
     <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" tabRatio="226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -770,7 +770,7 @@
     <col min="5" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -790,7 +790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -809,8 +809,12 @@
       <c r="F2" s="2">
         <v>101500</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f ca="1">YEARFRAC(D2,TODAY(),1)</f>
+        <v>26.614647501711158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -829,8 +833,12 @@
       <c r="F3" s="2">
         <v>54000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G25" ca="1" si="0">YEARFRAC(D3,TODAY(),1)</f>
+        <v>17.93227665706052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -838,10 +846,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>24074</v>
+        <v>27726</v>
       </c>
       <c r="D4" s="4">
-        <v>38124</v>
+        <v>39585</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -849,8 +857,12 @@
       <c r="F4" s="2">
         <v>72000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.039130434782606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -869,8 +881,12 @@
       <c r="F5" s="2">
         <v>31000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5054744525547452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -884,13 +900,17 @@
         <v>38459</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2">
         <v>50500</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.123887748117728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -901,7 +921,7 @@
         <v>25904</v>
       </c>
       <c r="D7" s="4">
-        <v>39256</v>
+        <v>35969</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -909,8 +929,12 @@
       <c r="F7" s="2">
         <v>120000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.94047860474549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -929,8 +953,12 @@
       <c r="F8" s="2">
         <v>75000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>20.677700348432058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -949,8 +977,12 @@
       <c r="F9" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.6284494086728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -961,7 +993,7 @@
         <v>35926</v>
       </c>
       <c r="D10" s="4">
-        <v>42072</v>
+        <v>43168</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -969,8 +1001,12 @@
       <c r="F10" s="2">
         <v>18500</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2307391474384044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -989,8 +1025,12 @@
       <c r="F11" s="2">
         <v>19000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.0885036496350367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1009,8 +1049,12 @@
       <c r="F12" s="2">
         <v>82500</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.70235741444867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1018,10 +1062,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="4">
-        <v>26432</v>
+        <v>29719</v>
       </c>
       <c r="D13" s="4">
-        <v>38054</v>
+        <v>39880</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -1029,8 +1073,12 @@
       <c r="F13" s="2">
         <v>77500</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.233401779603012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1049,8 +1097,12 @@
       <c r="F14" s="2">
         <v>35000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.307323750855579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1058,10 +1110,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="4">
-        <v>22559</v>
+        <v>33516</v>
       </c>
       <c r="D15" s="4">
-        <v>39861</v>
+        <v>42783</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -1069,8 +1121,12 @@
       <c r="F15" s="2">
         <v>22000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2854209445585214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1078,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="4">
-        <v>24970</v>
+        <v>32275</v>
       </c>
       <c r="D16" s="4">
-        <v>38066</v>
+        <v>39892</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1089,8 +1145,12 @@
       <c r="F16" s="2">
         <v>73000</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.200547570157427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1109,8 +1169,12 @@
       <c r="F17" s="2">
         <v>23500</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1299589603283173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1129,8 +1193,12 @@
       <c r="F18" s="2">
         <v>36500</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3322386425834702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1141,7 +1209,7 @@
         <v>31446</v>
       </c>
       <c r="D19" s="4">
-        <v>38425</v>
+        <v>39886</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1149,8 +1217,12 @@
       <c r="F19" s="2">
         <v>74000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.21697467488022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1164,13 +1236,17 @@
         <v>38038</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F20" s="2">
         <v>77000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <f t="shared" ca="1" si="0"/>
+        <v>20.274540477121626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1189,8 +1265,12 @@
       <c r="F21" s="2">
         <v>90000</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.899441929030221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1209,8 +1289,12 @@
       <c r="F22" s="2">
         <v>18500</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0861833105335157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1229,8 +1313,12 @@
       <c r="F23" s="2">
         <v>19000</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1249,8 +1337,12 @@
       <c r="F24" s="2">
         <v>19500</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91803278688524592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1268,6 +1360,10 @@
       </c>
       <c r="F25" s="2">
         <v>20000</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83333333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/data/employee info.xlsx
+++ b/data/employee info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{89003FC5-BD46-4765-AFD3-71F0D6A6A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0028312-4160-4BA4-817A-26272B6BD786}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{89003FC5-BD46-4765-AFD3-71F0D6A6A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF7DABAD-0819-4D3B-8944-2F38CA7D3312}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" tabRatio="226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
@@ -758,7 +758,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>26416</v>
+        <v>26450</v>
       </c>
       <c r="D2" s="4">
         <v>35723</v>
@@ -852,7 +852,7 @@
         <v>39585</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
         <v>72000</v>
@@ -870,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>32350</v>
+        <v>32324</v>
       </c>
       <c r="D5" s="4">
         <v>42702</v>
@@ -894,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>23042</v>
+        <v>23163</v>
       </c>
       <c r="D6" s="4">
         <v>38459</v>
@@ -966,20 +966,20 @@
         <v>0</v>
       </c>
       <c r="C9" s="4">
-        <v>27508</v>
+        <v>31161</v>
       </c>
       <c r="D9" s="4">
-        <v>36813</v>
+        <v>38639</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2">
-        <v>100000</v>
+        <v>85000</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>23.6284494086728</v>
+        <v>18.631074606433948</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/data/employee info.xlsx
+++ b/data/employee info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{89003FC5-BD46-4765-AFD3-71F0D6A6A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF7DABAD-0819-4D3B-8944-2F38CA7D3312}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{89003FC5-BD46-4765-AFD3-71F0D6A6A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50F40068-A45F-4822-91A3-431A3312F4E5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,11 +755,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -770,7 +768,7 @@
     <col min="5" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -790,7 +788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -809,12 +807,8 @@
       <c r="F2" s="2">
         <v>101500</v>
       </c>
-      <c r="G2">
-        <f ca="1">YEARFRAC(D2,TODAY(),1)</f>
-        <v>26.614647501711158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -833,12 +827,8 @@
       <c r="F3" s="2">
         <v>54000</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G25" ca="1" si="0">YEARFRAC(D3,TODAY(),1)</f>
-        <v>17.93227665706052</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -857,12 +847,8 @@
       <c r="F4" s="2">
         <v>72000</v>
       </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.039130434782606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -881,12 +867,8 @@
       <c r="F5" s="2">
         <v>31000</v>
       </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5054744525547452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -905,12 +887,8 @@
       <c r="F6" s="2">
         <v>50500</v>
       </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.123887748117728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -929,12 +907,8 @@
       <c r="F7" s="2">
         <v>120000</v>
       </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.94047860474549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -953,12 +927,8 @@
       <c r="F8" s="2">
         <v>75000</v>
       </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.677700348432058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -977,12 +947,8 @@
       <c r="F9" s="2">
         <v>85000</v>
       </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.631074606433948</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1001,12 +967,8 @@
       <c r="F10" s="2">
         <v>18500</v>
       </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2307391474384044</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1025,12 +987,8 @@
       <c r="F11" s="2">
         <v>19000</v>
       </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.0885036496350367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1049,12 +1007,8 @@
       <c r="F12" s="2">
         <v>82500</v>
       </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.70235741444867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1073,12 +1027,8 @@
       <c r="F13" s="2">
         <v>77500</v>
       </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.233401779603012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1097,12 +1047,8 @@
       <c r="F14" s="2">
         <v>35000</v>
       </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.307323750855579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1121,12 +1067,8 @@
       <c r="F15" s="2">
         <v>22000</v>
       </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2854209445585214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1145,12 +1087,8 @@
       <c r="F16" s="2">
         <v>73000</v>
       </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.200547570157427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1169,12 +1107,8 @@
       <c r="F17" s="2">
         <v>23500</v>
       </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1299589603283173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1193,12 +1127,8 @@
       <c r="F18" s="2">
         <v>36500</v>
       </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.3322386425834702</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1217,12 +1147,8 @@
       <c r="F19" s="2">
         <v>74000</v>
       </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.21697467488022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1241,12 +1167,8 @@
       <c r="F20" s="2">
         <v>77000</v>
       </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.274540477121626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1265,12 +1187,8 @@
       <c r="F21" s="2">
         <v>90000</v>
       </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.899441929030221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1289,12 +1207,8 @@
       <c r="F22" s="2">
         <v>18500</v>
       </c>
-      <c r="G22">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0861833105335157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1313,12 +1227,8 @@
       <c r="F23" s="2">
         <v>19000</v>
       </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1337,12 +1247,8 @@
       <c r="F24" s="2">
         <v>19500</v>
       </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.91803278688524592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1360,10 +1266,6 @@
       </c>
       <c r="F25" s="2">
         <v>20000</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83333333333333337</v>
       </c>
     </row>
   </sheetData>
